--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1591BCFD-38C3-4A88-ADED-771C9A1E160B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D7A9F1-8ADB-4332-A4A2-5DCCD4099764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>LANHDAOBO</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>CHUYENVIEN2</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,40 +417,40 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D7A9F1-8ADB-4332-A4A2-5DCCD4099764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB449D2-003D-42DE-BBEB-E3D8DB7354ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
+    <workbookView xWindow="15225" yWindow="4215" windowWidth="9960" windowHeight="11385" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>LANHDAOBO</t>
   </si>
@@ -42,7 +42,16 @@
     <t>CHUYENVIEN2</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -401,56 +410,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D616EE7-C15F-4CD7-B075-5A2C4D60E7B9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB449D2-003D-42DE-BBEB-E3D8DB7354ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA380490-9ECE-4DBF-8FBB-64BA3304C319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="4215" windowWidth="9960" windowHeight="11385" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>LANHDAOBO</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
   </si>
 </sst>
 </file>
@@ -73,15 +91,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,13 +113,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,68 +451,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D616EE7-C15F-4CD7-B075-5A2C4D60E7B9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA380490-9ECE-4DBF-8FBB-64BA3304C319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13169375-B364-4C22-990E-4A36F59B9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>LANHDAOBO</t>
   </si>
@@ -70,6 +71,12 @@
   </si>
   <si>
     <t>User5</t>
+  </si>
+  <si>
+    <t>Hệ thống quản lý nhiệm vụ và hồ sơ công việc</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
 </sst>
 </file>
@@ -91,7 +98,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D616EE7-C15F-4CD7-B075-5A2C4D60E7B9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +557,32 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51FAEB-6EFA-4437-91C1-56B0381167EF}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13169375-B364-4C22-990E-4A36F59B9D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB8ABE-AAE1-4CA5-A530-0E5A9F18CC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>LANHDAOBO</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Hệ thống quản lý nhiệm vụ và hồ sơ công việc</t>
   </si>
   <si>
-    <t>Content</t>
+    <t>Following Content</t>
+  </si>
+  <si>
+    <t>Processing Term</t>
+  </si>
+  <si>
+    <t>31/01/2021</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A51FAEB-6EFA-4437-91C1-56B0381167EF}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,14 +578,20 @@
     <col min="1" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auto\DataDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB8ABE-AAE1-4CA5-A530-0E5A9F18CC36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905D54E-7311-4CD6-B929-FFF5B4048039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5746D1FB-CD31-4ADF-817D-2905A0484BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateMission" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
-    <t>LANHDAOBO</t>
-  </si>
-  <si>
     <t>LANHDAODONVI1</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>31/01/2021</t>
+  </si>
+  <si>
+    <t>CVBO</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,75 +487,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -570,7 +570,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,18 +580,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
